--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.1168565193728</v>
+        <v>14.502653</v>
       </c>
       <c r="H2">
-        <v>12.1168565193728</v>
+        <v>43.50795899999999</v>
       </c>
       <c r="I2">
-        <v>0.08239962421301601</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="J2">
-        <v>0.08239962421301601</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N2">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q2">
-        <v>16.28113772557843</v>
+        <v>126.0612898164583</v>
       </c>
       <c r="R2">
-        <v>16.28113772557843</v>
+        <v>1134.551608348125</v>
       </c>
       <c r="S2">
-        <v>0.03352932294845785</v>
+        <v>0.07400439671941407</v>
       </c>
       <c r="T2">
-        <v>0.03352932294845785</v>
+        <v>0.07400439671941406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.1168565193728</v>
+        <v>14.502653</v>
       </c>
       <c r="H3">
-        <v>12.1168565193728</v>
+        <v>43.50795899999999</v>
       </c>
       <c r="I3">
-        <v>0.08239962421301601</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="J3">
-        <v>0.08239962421301601</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.95846140416376</v>
+        <v>0.125446</v>
       </c>
       <c r="N3">
-        <v>1.95846140416376</v>
+        <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q3">
-        <v>23.73039583298166</v>
+        <v>1.819299808238</v>
       </c>
       <c r="R3">
-        <v>23.73039583298166</v>
+        <v>16.373698274142</v>
       </c>
       <c r="S3">
-        <v>0.04887030126455816</v>
+        <v>0.001068021634210036</v>
       </c>
       <c r="T3">
-        <v>0.04887030126455816</v>
+        <v>0.001068021634210036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.7681455568092</v>
+        <v>14.502653</v>
       </c>
       <c r="H4">
-        <v>39.7681455568092</v>
+        <v>43.50795899999999</v>
       </c>
       <c r="I4">
-        <v>0.2704397996535178</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="J4">
-        <v>0.2704397996535178</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.34367669531678</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N4">
-        <v>1.34367669531678</v>
+        <v>0.282261</v>
       </c>
       <c r="O4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q4">
-        <v>53.43553040065008</v>
+        <v>1.364511112810999</v>
       </c>
       <c r="R4">
-        <v>53.43553040065008</v>
+        <v>12.280600015299</v>
       </c>
       <c r="S4">
-        <v>0.1100449603660534</v>
+        <v>0.0008010375101471525</v>
       </c>
       <c r="T4">
-        <v>0.1100449603660534</v>
+        <v>0.0008010375101471525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.7681455568092</v>
+        <v>14.502653</v>
       </c>
       <c r="H5">
-        <v>39.7681455568092</v>
+        <v>43.50795899999999</v>
       </c>
       <c r="I5">
-        <v>0.2704397996535178</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="J5">
-        <v>0.2704397996535178</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.95846140416376</v>
+        <v>2.040985</v>
       </c>
       <c r="N5">
-        <v>1.95846140416376</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q5">
-        <v>77.88437818817734</v>
+        <v>29.59969723320499</v>
       </c>
       <c r="R5">
-        <v>77.88437818817734</v>
+        <v>266.3972750988449</v>
       </c>
       <c r="S5">
-        <v>0.1603948392874644</v>
+        <v>0.01737652962309018</v>
       </c>
       <c r="T5">
-        <v>0.1603948392874644</v>
+        <v>0.01737652962309018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.649425773959</v>
+        <v>14.502653</v>
       </c>
       <c r="H6">
-        <v>22.649425773959</v>
+        <v>43.50795899999999</v>
       </c>
       <c r="I6">
-        <v>0.1540254412875911</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="J6">
-        <v>0.1540254412875911</v>
+        <v>0.09362461236978892</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.34367669531678</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N6">
-        <v>1.34367669531678</v>
+        <v>0.132007</v>
       </c>
       <c r="O6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q6">
-        <v>30.43350557477593</v>
+        <v>0.6381505715236665</v>
       </c>
       <c r="R6">
-        <v>30.43350557477593</v>
+        <v>5.743355143712998</v>
       </c>
       <c r="S6">
-        <v>0.0626746640234629</v>
+        <v>0.0003746268829274862</v>
       </c>
       <c r="T6">
-        <v>0.0626746640234629</v>
+        <v>0.0003746268829274861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.649425773959</v>
+        <v>39.84575</v>
       </c>
       <c r="H7">
-        <v>22.649425773959</v>
+        <v>119.53725</v>
       </c>
       <c r="I7">
-        <v>0.1540254412875911</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="J7">
-        <v>0.1540254412875911</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95846140416376</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N7">
-        <v>1.95846140416376</v>
+        <v>26.076875</v>
       </c>
       <c r="O7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q7">
-        <v>44.3580262047706</v>
+        <v>346.3508806770834</v>
       </c>
       <c r="R7">
-        <v>44.3580262047706</v>
+        <v>3117.15792609375</v>
       </c>
       <c r="S7">
-        <v>0.09135077726412823</v>
+        <v>0.203325604672648</v>
       </c>
       <c r="T7">
-        <v>0.09135077726412823</v>
+        <v>0.203325604672648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.2978179487949</v>
+        <v>39.84575</v>
       </c>
       <c r="H8">
-        <v>24.2978179487949</v>
+        <v>119.53725</v>
       </c>
       <c r="I8">
-        <v>0.1652351882665201</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="J8">
-        <v>0.1652351882665201</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.34367669531678</v>
+        <v>0.125446</v>
       </c>
       <c r="N8">
-        <v>1.34367669531678</v>
+        <v>0.376338</v>
       </c>
       <c r="O8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q8">
-        <v>32.64841172484547</v>
+        <v>4.998489954499999</v>
       </c>
       <c r="R8">
-        <v>32.64841172484547</v>
+        <v>44.9864095905</v>
       </c>
       <c r="S8">
-        <v>0.06723603466339888</v>
+        <v>0.002934368148457014</v>
       </c>
       <c r="T8">
-        <v>0.06723603466339888</v>
+        <v>0.002934368148457014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.2978179487949</v>
+        <v>39.84575</v>
       </c>
       <c r="H9">
-        <v>24.2978179487949</v>
+        <v>119.53725</v>
       </c>
       <c r="I9">
-        <v>0.1652351882665201</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="J9">
-        <v>0.1652351882665201</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.95846140416376</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N9">
-        <v>1.95846140416376</v>
+        <v>0.282261</v>
       </c>
       <c r="O9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q9">
-        <v>47.58633865811228</v>
+        <v>3.748967080249999</v>
       </c>
       <c r="R9">
-        <v>47.58633865811228</v>
+        <v>33.74070372225</v>
       </c>
       <c r="S9">
-        <v>0.09799915360312118</v>
+        <v>0.002200834590053689</v>
       </c>
       <c r="T9">
-        <v>0.09799915360312118</v>
+        <v>0.002200834590053689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.0233727602058</v>
+        <v>39.84575</v>
       </c>
       <c r="H10">
-        <v>29.0233727602058</v>
+        <v>119.53725</v>
       </c>
       <c r="I10">
-        <v>0.1973709109298782</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="J10">
-        <v>0.1973709109298782</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.34367669531678</v>
+        <v>2.040985</v>
       </c>
       <c r="N10">
-        <v>1.34367669531678</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q10">
-        <v>38.99802959738038</v>
+        <v>81.32457806374997</v>
       </c>
       <c r="R10">
-        <v>38.99802959738038</v>
+        <v>731.9212025737498</v>
       </c>
       <c r="S10">
-        <v>0.08031241739757655</v>
+        <v>0.04774166872980038</v>
       </c>
       <c r="T10">
-        <v>0.08031241739757655</v>
+        <v>0.04774166872980038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.0233727602058</v>
+        <v>39.84575</v>
       </c>
       <c r="H11">
-        <v>29.0233727602058</v>
+        <v>119.53725</v>
       </c>
       <c r="I11">
-        <v>0.1973709109298782</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="J11">
-        <v>0.1973709109298782</v>
+        <v>0.2572317560334317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.95846140416376</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N11">
-        <v>1.95846140416376</v>
+        <v>0.132007</v>
       </c>
       <c r="O11">
-        <v>0.5930888851898247</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P11">
-        <v>0.5930888851898247</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q11">
-        <v>56.84115536952087</v>
+        <v>1.753305973416666</v>
       </c>
       <c r="R11">
-        <v>56.84115536952087</v>
+        <v>15.77975376075</v>
       </c>
       <c r="S11">
-        <v>0.1170584935323017</v>
+        <v>0.001029279892472631</v>
       </c>
       <c r="T11">
-        <v>0.1170584935323017</v>
+        <v>0.001029279892472631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.1942816691508</v>
+        <v>25.009064</v>
       </c>
       <c r="H12">
-        <v>19.1942816691508</v>
+        <v>75.027192</v>
       </c>
       <c r="I12">
-        <v>0.1305290356494768</v>
+        <v>0.1614507306167529</v>
       </c>
       <c r="J12">
-        <v>0.1305290356494768</v>
+        <v>0.1614507306167529</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N12">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O12">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P12">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q12">
-        <v>25.79090896218399</v>
+        <v>217.3860785983333</v>
       </c>
       <c r="R12">
-        <v>25.79090896218399</v>
+        <v>1956.474707385</v>
       </c>
       <c r="S12">
-        <v>0.05311371541122573</v>
+        <v>0.1276166983956119</v>
       </c>
       <c r="T12">
-        <v>0.05311371541122573</v>
+        <v>0.1276166983956119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.009064</v>
+      </c>
+      <c r="H13">
+        <v>75.027192</v>
+      </c>
+      <c r="I13">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="J13">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.125446</v>
+      </c>
+      <c r="N13">
+        <v>0.376338</v>
+      </c>
+      <c r="O13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q13">
+        <v>3.137287042544</v>
+      </c>
+      <c r="R13">
+        <v>28.235583382896</v>
+      </c>
+      <c r="S13">
+        <v>0.001841747258473563</v>
+      </c>
+      <c r="T13">
+        <v>0.001841747258473563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.009064</v>
+      </c>
+      <c r="H14">
+        <v>75.027192</v>
+      </c>
+      <c r="I14">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="J14">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.282261</v>
+      </c>
+      <c r="O14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q14">
+        <v>2.353027804568</v>
+      </c>
+      <c r="R14">
+        <v>21.177250241112</v>
+      </c>
+      <c r="S14">
+        <v>0.001381347147840522</v>
+      </c>
+      <c r="T14">
+        <v>0.001381347147840522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.009064</v>
+      </c>
+      <c r="H15">
+        <v>75.027192</v>
+      </c>
+      <c r="I15">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="J15">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.040985</v>
+      </c>
+      <c r="N15">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q15">
+        <v>51.04312448803999</v>
+      </c>
+      <c r="R15">
+        <v>459.38812039236</v>
+      </c>
+      <c r="S15">
+        <v>0.02996491341561839</v>
+      </c>
+      <c r="T15">
+        <v>0.02996491341561839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.009064</v>
+      </c>
+      <c r="H16">
+        <v>75.027192</v>
+      </c>
+      <c r="I16">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="J16">
+        <v>0.1614507306167529</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.132007</v>
+      </c>
+      <c r="O16">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P16">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q16">
+        <v>1.100457170482666</v>
+      </c>
+      <c r="R16">
+        <v>9.904114534343998</v>
+      </c>
+      <c r="S16">
+        <v>0.0006460243992084766</v>
+      </c>
+      <c r="T16">
+        <v>0.0006460243992084765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.448671</v>
+      </c>
+      <c r="H17">
+        <v>73.346013</v>
+      </c>
+      <c r="I17">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="J17">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N17">
+        <v>26.076875</v>
+      </c>
+      <c r="O17">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P17">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q17">
+        <v>212.514979194375</v>
+      </c>
+      <c r="R17">
+        <v>1912.634812749375</v>
+      </c>
+      <c r="S17">
+        <v>0.1247571149876119</v>
+      </c>
+      <c r="T17">
+        <v>0.1247571149876118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24.448671</v>
+      </c>
+      <c r="H18">
+        <v>73.346013</v>
+      </c>
+      <c r="I18">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="J18">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.125446</v>
+      </c>
+      <c r="N18">
+        <v>0.376338</v>
+      </c>
+      <c r="O18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q18">
+        <v>3.066987982266</v>
+      </c>
+      <c r="R18">
+        <v>27.602891840394</v>
+      </c>
+      <c r="S18">
+        <v>0.001800478130152017</v>
+      </c>
+      <c r="T18">
+        <v>0.001800478130152016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24.448671</v>
+      </c>
+      <c r="H19">
+        <v>73.346013</v>
+      </c>
+      <c r="I19">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="J19">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.282261</v>
+      </c>
+      <c r="O19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q19">
+        <v>2.300302108377</v>
+      </c>
+      <c r="R19">
+        <v>20.702718975393</v>
+      </c>
+      <c r="S19">
+        <v>0.00135039447915129</v>
+      </c>
+      <c r="T19">
+        <v>0.00135039447915129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.1942816691508</v>
-      </c>
-      <c r="H13">
-        <v>19.1942816691508</v>
-      </c>
-      <c r="I13">
-        <v>0.1305290356494768</v>
-      </c>
-      <c r="J13">
-        <v>0.1305290356494768</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="N13">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="O13">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="P13">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="Q13">
-        <v>37.5912598296798</v>
-      </c>
-      <c r="R13">
-        <v>37.5912598296798</v>
-      </c>
-      <c r="S13">
-        <v>0.0774153202382511</v>
-      </c>
-      <c r="T13">
-        <v>0.0774153202382511</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24.448671</v>
+      </c>
+      <c r="H20">
+        <v>73.346013</v>
+      </c>
+      <c r="I20">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="J20">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.040985</v>
+      </c>
+      <c r="N20">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q20">
+        <v>49.89937078093499</v>
+      </c>
+      <c r="R20">
+        <v>449.0943370284149</v>
+      </c>
+      <c r="S20">
+        <v>0.02929347174456191</v>
+      </c>
+      <c r="T20">
+        <v>0.0292934717445619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24.448671</v>
+      </c>
+      <c r="H21">
+        <v>73.346013</v>
+      </c>
+      <c r="I21">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="J21">
+        <v>0.1578330078870052</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.132007</v>
+      </c>
+      <c r="O21">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P21">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q21">
+        <v>1.075798570899</v>
+      </c>
+      <c r="R21">
+        <v>9.682187138090999</v>
+      </c>
+      <c r="S21">
+        <v>0.0006315485455281616</v>
+      </c>
+      <c r="T21">
+        <v>0.0006315485455281614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>29.85207866666667</v>
+      </c>
+      <c r="H22">
+        <v>89.556236</v>
+      </c>
+      <c r="I22">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="J22">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N22">
+        <v>26.076875</v>
+      </c>
+      <c r="O22">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P22">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q22">
+        <v>259.4829746269445</v>
+      </c>
+      <c r="R22">
+        <v>2335.3467716425</v>
+      </c>
+      <c r="S22">
+        <v>0.1523297201241151</v>
+      </c>
+      <c r="T22">
+        <v>0.152329720124115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>29.85207866666667</v>
+      </c>
+      <c r="H23">
+        <v>89.556236</v>
+      </c>
+      <c r="I23">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="J23">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.125446</v>
+      </c>
+      <c r="N23">
+        <v>0.376338</v>
+      </c>
+      <c r="O23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q23">
+        <v>3.744823860418667</v>
+      </c>
+      <c r="R23">
+        <v>33.703414743768</v>
+      </c>
+      <c r="S23">
+        <v>0.002198402309021661</v>
+      </c>
+      <c r="T23">
+        <v>0.00219840230902166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>29.85207866666667</v>
+      </c>
+      <c r="H24">
+        <v>89.556236</v>
+      </c>
+      <c r="I24">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="J24">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.282261</v>
+      </c>
+      <c r="O24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q24">
+        <v>2.808692525510666</v>
+      </c>
+      <c r="R24">
+        <v>25.278232729596</v>
+      </c>
+      <c r="S24">
+        <v>0.001648845543492187</v>
+      </c>
+      <c r="T24">
+        <v>0.001648845543492187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>29.85207866666667</v>
+      </c>
+      <c r="H25">
+        <v>89.556236</v>
+      </c>
+      <c r="I25">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="J25">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.040985</v>
+      </c>
+      <c r="N25">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q25">
+        <v>60.92764477748666</v>
+      </c>
+      <c r="R25">
+        <v>548.3488029973799</v>
+      </c>
+      <c r="S25">
+        <v>0.03576763018891454</v>
+      </c>
+      <c r="T25">
+        <v>0.03576763018891453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>29.85207866666667</v>
+      </c>
+      <c r="H26">
+        <v>89.556236</v>
+      </c>
+      <c r="I26">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="J26">
+        <v>0.1927157254330716</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.132007</v>
+      </c>
+      <c r="O26">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P26">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q26">
+        <v>1.313561116183555</v>
+      </c>
+      <c r="R26">
+        <v>11.822050045652</v>
+      </c>
+      <c r="S26">
+        <v>0.0007711272675281857</v>
+      </c>
+      <c r="T26">
+        <v>0.0007711272675281854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>21.24392533333333</v>
+      </c>
+      <c r="H27">
+        <v>63.731776</v>
+      </c>
+      <c r="I27">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="J27">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N27">
+        <v>26.076875</v>
+      </c>
+      <c r="O27">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P27">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q27">
+        <v>184.6583951422222</v>
+      </c>
+      <c r="R27">
+        <v>1661.92555628</v>
+      </c>
+      <c r="S27">
+        <v>0.1084038815688144</v>
+      </c>
+      <c r="T27">
+        <v>0.1084038815688144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>21.24392533333333</v>
+      </c>
+      <c r="H28">
+        <v>63.731776</v>
+      </c>
+      <c r="I28">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="J28">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.125446</v>
+      </c>
+      <c r="N28">
+        <v>0.376338</v>
+      </c>
+      <c r="O28">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P28">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q28">
+        <v>2.664965457365333</v>
+      </c>
+      <c r="R28">
+        <v>23.984689116288</v>
+      </c>
+      <c r="S28">
+        <v>0.001564470435274337</v>
+      </c>
+      <c r="T28">
+        <v>0.001564470435274337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>21.24392533333333</v>
+      </c>
+      <c r="H29">
+        <v>63.731776</v>
+      </c>
+      <c r="I29">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="J29">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.282261</v>
+      </c>
+      <c r="O29">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P29">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q29">
+        <v>1.998777202837333</v>
+      </c>
+      <c r="R29">
+        <v>17.988994825536</v>
+      </c>
+      <c r="S29">
+        <v>0.001173384004620765</v>
+      </c>
+      <c r="T29">
+        <v>0.001173384004620765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>21.24392533333333</v>
+      </c>
+      <c r="H30">
+        <v>63.731776</v>
+      </c>
+      <c r="I30">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="J30">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.040985</v>
+      </c>
+      <c r="N30">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P30">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q30">
+        <v>43.35853294645332</v>
+      </c>
+      <c r="R30">
+        <v>390.2267965180799</v>
+      </c>
+      <c r="S30">
+        <v>0.02545366684739563</v>
+      </c>
+      <c r="T30">
+        <v>0.02545366684739563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>21.24392533333333</v>
+      </c>
+      <c r="H31">
+        <v>63.731776</v>
+      </c>
+      <c r="I31">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="J31">
+        <v>0.1371441676599497</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.132007</v>
+      </c>
+      <c r="O31">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P31">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q31">
+        <v>0.9347822838257778</v>
+      </c>
+      <c r="R31">
+        <v>8.413040554431998</v>
+      </c>
+      <c r="S31">
+        <v>0.0005487648038445743</v>
+      </c>
+      <c r="T31">
+        <v>0.0005487648038445741</v>
       </c>
     </row>
   </sheetData>
